--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはRatio DataTypeに対して、薬剤量に関する定義を行なったものである</t>
+    <t>このプロファイルはRatio DataTypeに対して、日本の薬剤単位を割り当てた派生型である。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -246,13 +246,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>A ratio of two Quantity values - a numerator and a denominator</t>
-  </si>
-  <si>
-    <t>A relationship of two Quantity values - expressed as a numerator and a denominator.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+    <t>単位時間あたり薬剤の投与量</t>
+  </si>
+  <si>
+    <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -338,7 +335,7 @@
     <t>薬剤に関する数量と単位を定めたデータイプ</t>
   </si>
   <si>
-    <t>薬剤に関する数量と単位を定めている。【JP Core仕様】単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+    <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -697,7 +694,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -870,10 +867,10 @@
         <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -932,21 +929,21 @@
         <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI2" t="s" s="2">
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -957,25 +954,25 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1026,13 +1023,13 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -1044,16 +1041,16 @@
         <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1072,16 +1069,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1119,19 +1116,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1143,18 +1140,18 @@
         <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1165,7 +1162,7 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
@@ -1177,16 +1174,16 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1236,30 +1233,30 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AJ5" t="s" s="2">
+      <c r="AK5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1270,7 +1267,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -1279,16 +1276,16 @@
         <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1339,25 +1336,25 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="120">
   <si>
     <t>Property</t>
   </si>
@@ -325,11 +325,27 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>strengthType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Medication_IngredientStrength_StrengthType}
+</t>
+  </si>
+  <si>
+    <t>力価区分</t>
+  </si>
+  <si>
+    <t>投与量が製剤単位か成分単位かを格納する</t>
+  </si>
+  <si>
     <t>Ratio.numerator</t>
   </si>
   <si>
     <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationQuantity}
 </t>
+  </si>
+  <si>
+    <t>投与量</t>
   </si>
   <si>
     <t>薬剤に関する数量と単位を定めたデータイプ</t>
@@ -675,7 +691,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -685,7 +701,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.3046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1151,9 +1167,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>74</v>
       </c>
@@ -1180,11 +1198,9 @@
         <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>74</v>
@@ -1233,30 +1249,30 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1276,18 +1292,20 @@
         <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="J6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
         <v>74</v>
@@ -1336,7 +1354,7 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -1345,16 +1363,119 @@
         <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK6" t="s" s="2">
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>114</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
